--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E351193A-870B-414B-B0FC-0B63D11BA0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48520172-47B7-8946-B492-4E042B46E3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:D675"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
